--- a/natmiOut/OldD7/LR-pairs_lrc2p/Adm-Ramp2.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Adm-Ramp2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,13 +82,16 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Adm</t>
   </si>
   <si>
     <t>Ramp2</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.2535238362823</v>
+        <v>18.73555533333333</v>
       </c>
       <c r="H2">
-        <v>18.2535238362823</v>
+        <v>56.206666</v>
       </c>
       <c r="I2">
-        <v>0.483659183531952</v>
+        <v>0.4699290876663871</v>
       </c>
       <c r="J2">
-        <v>0.483659183531952</v>
+        <v>0.4699290876663871</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>68.1427936666266</v>
+        <v>69.41757066666666</v>
       </c>
       <c r="N2">
-        <v>68.1427936666266</v>
+        <v>208.252712</v>
       </c>
       <c r="O2">
-        <v>0.6599123596913993</v>
+        <v>0.6629158479828877</v>
       </c>
       <c r="P2">
-        <v>0.6599123596913993</v>
+        <v>0.6629158479828877</v>
       </c>
       <c r="Q2">
-        <v>1243.846108464635</v>
+        <v>1300.57673633091</v>
       </c>
       <c r="R2">
-        <v>1243.846108464635</v>
+        <v>11705.19062697819</v>
       </c>
       <c r="S2">
-        <v>0.319172673090986</v>
+        <v>0.3115234396421878</v>
       </c>
       <c r="T2">
-        <v>0.319172673090986</v>
+        <v>0.3115234396421878</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.2535238362823</v>
+        <v>18.73555533333333</v>
       </c>
       <c r="H3">
-        <v>18.2535238362823</v>
+        <v>56.206666</v>
       </c>
       <c r="I3">
-        <v>0.483659183531952</v>
+        <v>0.4699290876663871</v>
       </c>
       <c r="J3">
-        <v>0.483659183531952</v>
+        <v>0.4699290876663871</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>32.124564942457</v>
+        <v>32.15646633333333</v>
       </c>
       <c r="N3">
-        <v>32.124564942457</v>
+        <v>96.46939900000001</v>
       </c>
       <c r="O3">
-        <v>0.3111025585324504</v>
+        <v>0.3070840846600094</v>
       </c>
       <c r="P3">
-        <v>0.3111025585324504</v>
+        <v>0.3070840846600094</v>
       </c>
       <c r="Q3">
-        <v>586.3865119073376</v>
+        <v>602.4692543126372</v>
       </c>
       <c r="R3">
-        <v>586.3865119073376</v>
+        <v>5422.223288813734</v>
       </c>
       <c r="S3">
-        <v>0.1504676094545063</v>
+        <v>0.1443077437411458</v>
       </c>
       <c r="T3">
-        <v>0.1504676094545063</v>
+        <v>0.1443077437411458</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.2535238362823</v>
+        <v>18.73555533333333</v>
       </c>
       <c r="H4">
-        <v>18.2535238362823</v>
+        <v>56.206666</v>
       </c>
       <c r="I4">
-        <v>0.483659183531952</v>
+        <v>0.4699290876663871</v>
       </c>
       <c r="J4">
-        <v>0.483659183531952</v>
+        <v>0.4699290876663871</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.99301023518661</v>
+        <v>3.141472333333333</v>
       </c>
       <c r="N4">
-        <v>2.99301023518661</v>
+        <v>9.424417</v>
       </c>
       <c r="O4">
-        <v>0.02898508177615025</v>
+        <v>0.03000006735710286</v>
       </c>
       <c r="P4">
-        <v>0.02898508177615025</v>
+        <v>0.03000006735710286</v>
       </c>
       <c r="Q4">
-        <v>54.63298367021569</v>
+        <v>58.85722872930244</v>
       </c>
       <c r="R4">
-        <v>54.63298367021569</v>
+        <v>529.715058563722</v>
       </c>
       <c r="S4">
-        <v>0.01401890098645969</v>
+        <v>0.01409790428305351</v>
       </c>
       <c r="T4">
-        <v>0.01401890098645969</v>
+        <v>0.01409790428305351</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +708,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.4869439513544</v>
+        <v>19.55844</v>
       </c>
       <c r="H5">
-        <v>19.4869439513544</v>
+        <v>58.67532</v>
       </c>
       <c r="I5">
-        <v>0.5163408164680481</v>
+        <v>0.490568851675588</v>
       </c>
       <c r="J5">
-        <v>0.5163408164680481</v>
+        <v>0.4905688516755881</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>68.1427936666266</v>
+        <v>69.41757066666666</v>
       </c>
       <c r="N5">
-        <v>68.1427936666266</v>
+        <v>208.252712</v>
       </c>
       <c r="O5">
-        <v>0.6599123596913993</v>
+        <v>0.6629158479828877</v>
       </c>
       <c r="P5">
-        <v>0.6599123596913993</v>
+        <v>0.6629158479828877</v>
       </c>
       <c r="Q5">
-        <v>1327.89480087026</v>
+        <v>1357.69939082976</v>
       </c>
       <c r="R5">
-        <v>1327.89480087026</v>
+        <v>12219.29451746784</v>
       </c>
       <c r="S5">
-        <v>0.3407396866004133</v>
+        <v>0.3252058663025139</v>
       </c>
       <c r="T5">
-        <v>0.3407396866004133</v>
+        <v>0.3252058663025139</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>19.4869439513544</v>
+        <v>19.55844</v>
       </c>
       <c r="H6">
-        <v>19.4869439513544</v>
+        <v>58.67532</v>
       </c>
       <c r="I6">
-        <v>0.5163408164680481</v>
+        <v>0.490568851675588</v>
       </c>
       <c r="J6">
-        <v>0.5163408164680481</v>
+        <v>0.4905688516755881</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>32.124564942457</v>
+        <v>32.15646633333333</v>
       </c>
       <c r="N6">
-        <v>32.124564942457</v>
+        <v>96.46939900000001</v>
       </c>
       <c r="O6">
-        <v>0.3111025585324504</v>
+        <v>0.3070840846600094</v>
       </c>
       <c r="P6">
-        <v>0.3111025585324504</v>
+        <v>0.3070840846600094</v>
       </c>
       <c r="Q6">
-        <v>626.0095964953041</v>
+        <v>628.93031739252</v>
       </c>
       <c r="R6">
-        <v>626.0095964953041</v>
+        <v>5660.37285653268</v>
       </c>
       <c r="S6">
-        <v>0.1606349490779442</v>
+        <v>0.1506458867795099</v>
       </c>
       <c r="T6">
-        <v>0.1606349490779442</v>
+        <v>0.1506458867795099</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +832,433 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>19.55844</v>
+      </c>
+      <c r="H7">
+        <v>58.67532</v>
+      </c>
+      <c r="I7">
+        <v>0.490568851675588</v>
+      </c>
+      <c r="J7">
+        <v>0.4905688516755881</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>3.141472333333333</v>
+      </c>
+      <c r="N7">
+        <v>9.424417</v>
+      </c>
+      <c r="O7">
+        <v>0.03000006735710286</v>
+      </c>
+      <c r="P7">
+        <v>0.03000006735710286</v>
+      </c>
+      <c r="Q7">
+        <v>61.44229814316</v>
+      </c>
+      <c r="R7">
+        <v>552.98068328844</v>
+      </c>
+      <c r="S7">
+        <v>0.01471709859356424</v>
+      </c>
+      <c r="T7">
+        <v>0.01471709859356424</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.3162143333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.9486429999999999</v>
+      </c>
+      <c r="I8">
+        <v>0.007931353542853873</v>
+      </c>
+      <c r="J8">
+        <v>0.007931353542853875</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>69.41757066666666</v>
+      </c>
+      <c r="N8">
+        <v>208.252712</v>
+      </c>
+      <c r="O8">
+        <v>0.6629158479828877</v>
+      </c>
+      <c r="P8">
+        <v>0.6629158479828877</v>
+      </c>
+      <c r="Q8">
+        <v>21.95083082997955</v>
+      </c>
+      <c r="R8">
+        <v>197.557477469816</v>
+      </c>
+      <c r="S8">
+        <v>0.005257819959513056</v>
+      </c>
+      <c r="T8">
+        <v>0.005257819959513057</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.3162143333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.9486429999999999</v>
+      </c>
+      <c r="I9">
+        <v>0.007931353542853873</v>
+      </c>
+      <c r="J9">
+        <v>0.007931353542853875</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>32.15646633333333</v>
+      </c>
+      <c r="N9">
+        <v>96.46939900000001</v>
+      </c>
+      <c r="O9">
+        <v>0.3070840846600094</v>
+      </c>
+      <c r="P9">
+        <v>0.3070840846600094</v>
+      </c>
+      <c r="Q9">
+        <v>10.16833556395078</v>
+      </c>
+      <c r="R9">
+        <v>91.515020075557</v>
+      </c>
+      <c r="S9">
+        <v>0.002435592442822204</v>
+      </c>
+      <c r="T9">
+        <v>0.002435592442822205</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.3162143333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.9486429999999999</v>
+      </c>
+      <c r="I10">
+        <v>0.007931353542853873</v>
+      </c>
+      <c r="J10">
+        <v>0.007931353542853875</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>3.141472333333333</v>
+      </c>
+      <c r="N10">
+        <v>9.424417</v>
+      </c>
+      <c r="O10">
+        <v>0.03000006735710286</v>
+      </c>
+      <c r="P10">
+        <v>0.03000006735710286</v>
+      </c>
+      <c r="Q10">
+        <v>0.993378579570111</v>
+      </c>
+      <c r="R10">
+        <v>8.940407216131</v>
+      </c>
+      <c r="S10">
+        <v>0.0002379411405186126</v>
+      </c>
+      <c r="T10">
+        <v>0.0002379411405186126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
         <v>24</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>19.4869439513544</v>
-      </c>
-      <c r="H7">
-        <v>19.4869439513544</v>
-      </c>
-      <c r="I7">
-        <v>0.5163408164680481</v>
-      </c>
-      <c r="J7">
-        <v>0.5163408164680481</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>2.99301023518661</v>
-      </c>
-      <c r="N7">
-        <v>2.99301023518661</v>
-      </c>
-      <c r="O7">
-        <v>0.02898508177615025</v>
-      </c>
-      <c r="P7">
-        <v>0.02898508177615025</v>
-      </c>
-      <c r="Q7">
-        <v>58.32462269891153</v>
-      </c>
-      <c r="R7">
-        <v>58.32462269891153</v>
-      </c>
-      <c r="S7">
-        <v>0.01496618078969056</v>
-      </c>
-      <c r="T7">
-        <v>0.01496618078969056</v>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>1.258689333333333</v>
+      </c>
+      <c r="H11">
+        <v>3.776068</v>
+      </c>
+      <c r="I11">
+        <v>0.03157070711517098</v>
+      </c>
+      <c r="J11">
+        <v>0.03157070711517099</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>69.41757066666666</v>
+      </c>
+      <c r="N11">
+        <v>208.252712</v>
+      </c>
+      <c r="O11">
+        <v>0.6629158479828877</v>
+      </c>
+      <c r="P11">
+        <v>0.6629158479828877</v>
+      </c>
+      <c r="Q11">
+        <v>87.37515574404621</v>
+      </c>
+      <c r="R11">
+        <v>786.376401696416</v>
+      </c>
+      <c r="S11">
+        <v>0.02092872207867296</v>
+      </c>
+      <c r="T11">
+        <v>0.02092872207867296</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>1.258689333333333</v>
+      </c>
+      <c r="H12">
+        <v>3.776068</v>
+      </c>
+      <c r="I12">
+        <v>0.03157070711517098</v>
+      </c>
+      <c r="J12">
+        <v>0.03157070711517099</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>32.15646633333333</v>
+      </c>
+      <c r="N12">
+        <v>96.46939900000001</v>
+      </c>
+      <c r="O12">
+        <v>0.3070840846600094</v>
+      </c>
+      <c r="P12">
+        <v>0.3070840846600094</v>
+      </c>
+      <c r="Q12">
+        <v>40.47500117145911</v>
+      </c>
+      <c r="R12">
+        <v>364.2750105431321</v>
+      </c>
+      <c r="S12">
+        <v>0.009694861696531526</v>
+      </c>
+      <c r="T12">
+        <v>0.009694861696531528</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>1.258689333333333</v>
+      </c>
+      <c r="H13">
+        <v>3.776068</v>
+      </c>
+      <c r="I13">
+        <v>0.03157070711517098</v>
+      </c>
+      <c r="J13">
+        <v>0.03157070711517099</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>3.141472333333333</v>
+      </c>
+      <c r="N13">
+        <v>9.424417</v>
+      </c>
+      <c r="O13">
+        <v>0.03000006735710286</v>
+      </c>
+      <c r="P13">
+        <v>0.03000006735710286</v>
+      </c>
+      <c r="Q13">
+        <v>3.954137716928444</v>
+      </c>
+      <c r="R13">
+        <v>35.587239452356</v>
+      </c>
+      <c r="S13">
+        <v>0.0009471233399664958</v>
+      </c>
+      <c r="T13">
+        <v>0.0009471233399664961</v>
       </c>
     </row>
   </sheetData>
